--- a/BowMan/docs/budget_previsionnel.xlsx
+++ b/BowMan/docs/budget_previsionnel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mxka\Informatique\2PROJ\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNU\Documents\GitHub\2PROJ_BowMan\BowMan\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632579A3-EAC1-4402-9729-BAC509FAAD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C273D80D-55E7-4C37-B5A6-6BE2136DA2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38425898-4BA9-4D87-8967-9CEC2002653F}"/>
+    <workbookView xWindow="36705" yWindow="-8100" windowWidth="26505" windowHeight="16410" xr2:uid="{38425898-4BA9-4D87-8967-9CEC2002653F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t xml:space="preserve">Estimation du budget prévisionnel </t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ressources humaines</t>
   </si>
   <si>
-    <t>Chef de projet</t>
-  </si>
-  <si>
     <t>€/heure</t>
   </si>
   <si>
@@ -107,42 +104,17 @@
     <t>Logiciels / License</t>
   </si>
   <si>
-    <t>Ce budget couvre les salaires des développeurs juniors, le matériel, les logiciels et licences ainsi que diverses autres dépenses.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Nous nous engageons à respecter ce budget pour assurer le succès du projet et livrer un produit de qualité à </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Anblisoft</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>Ce budget couvre les salaires de développeur junior, le matériel, les logiciels et licences ainsi que diverses autres dépenses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nous nous engageons à respecter ce budget pour assurer le succès du projet et livrer un produit de qualité.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,15 +198,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -735,8 +698,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{518E36E1-0FE6-49C1-ACF2-C62C95B995B6}" name="Tableau1" displayName="Tableau1" ref="A3:E9" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A3:E9" xr:uid="{518E36E1-0FE6-49C1-ACF2-C62C95B995B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{518E36E1-0FE6-49C1-ACF2-C62C95B995B6}" name="Tableau1" displayName="Tableau1" ref="A3:E8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A3:E8" xr:uid="{518E36E1-0FE6-49C1-ACF2-C62C95B995B6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40E9062B-A776-44FC-87ED-9B30E53C57B2}" name="Ressources humaines" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{B3209B89-6729-4D8E-8BA1-E43DCC48FBBA}" name="nb/heure" dataDxfId="17"/>
@@ -749,8 +712,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C60ECF1-9186-41EE-B5EA-818C34045611}" name="Tableau2" displayName="Tableau2" ref="A12:D15" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A12:D15" xr:uid="{2C60ECF1-9186-41EE-B5EA-818C34045611}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C60ECF1-9186-41EE-B5EA-818C34045611}" name="Tableau2" displayName="Tableau2" ref="A11:D14" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A11:D14" xr:uid="{2C60ECF1-9186-41EE-B5EA-818C34045611}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AC4504F2-6D10-4F6E-8B8A-453F3DF96F89}" name="Ressources matérielles et logicielles"/>
     <tableColumn id="2" xr3:uid="{EE36B1B6-7D7F-46F7-B388-E7D983A5BCD1}" name="prix" dataDxfId="9"/>
@@ -762,8 +725,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8FE8B15-A208-4331-BFC3-462E2AD8B9B0}" name="Tableau3" displayName="Tableau3" ref="A18:D21" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A18:D21" xr:uid="{E8FE8B15-A208-4331-BFC3-462E2AD8B9B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8FE8B15-A208-4331-BFC3-462E2AD8B9B0}" name="Tableau3" displayName="Tableau3" ref="A17:D20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A17:D20" xr:uid="{E8FE8B15-A208-4331-BFC3-462E2AD8B9B0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E5D81335-8D89-4F21-88A9-EBA7CC06B182}" name="Frais annexes"/>
     <tableColumn id="2" xr3:uid="{72AD9093-6D06-41A2-8B0B-F62CF04C5A69}" name="prix" dataDxfId="2"/>
@@ -1071,290 +1034,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A953D2-5250-4E5F-9F4B-743F939457D5}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="B4" s="3">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="C4" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f>(B4*C4)*D4</f>
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E4:E7" si="0">(B4*C4)*D4</f>
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E8" si="0">(B5*C5)*D5</f>
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="14">
+        <f>E4+E5+E6+E7</f>
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="14">
-        <f>E4+E5+E6+E7+E8</f>
-        <v>38560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <f>B12+C12</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <f>B13+C13</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3">
+        <f>+B13+C13</f>
         <v>500</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <f>+B14+C14</f>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="14">
+        <f>D12+D13</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="14">
-        <f>D13+D14</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5">
         <f>B19+C19</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="14">
+        <f>D18+D19</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
-        <v>300</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5">
-        <f>B20+C20</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="14">
-        <f>D19+D20</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="B23" s="12">
+        <f>E8+D14+D20</f>
+        <v>8690</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="12">
-        <f>E9+D15+D21</f>
-        <v>40860</v>
-      </c>
-      <c r="C24" s="12" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/BowMan/docs/budget_previsionnel.xlsx
+++ b/BowMan/docs/budget_previsionnel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNU\Documents\GitHub\2PROJ_BowMan\BowMan\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C273D80D-55E7-4C37-B5A6-6BE2136DA2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF3F421-B4EA-4229-A0A7-ACBC5BF16612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36705" yWindow="-8100" windowWidth="26505" windowHeight="16410" xr2:uid="{38425898-4BA9-4D87-8967-9CEC2002653F}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Estimation du budget prévisionnel </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Ressources humaines</t>
   </si>
@@ -95,19 +92,31 @@
     <t>euros</t>
   </si>
   <si>
-    <t>Notes : Ce budget est une estimation et peut varier en fonction de plusieurs facteurs tels que le taux horaires réels, les frais supplémentaires, ect..</t>
-  </si>
-  <si>
     <t>Afin de finaliser le budget, une évaluation plus précise des coûts sera réalisée.</t>
   </si>
   <si>
     <t>Logiciels / License</t>
   </si>
   <si>
-    <t>Ce budget couvre les salaires de développeur junior, le matériel, les logiciels et licences ainsi que diverses autres dépenses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nous nous engageons à respecter ce budget pour assurer le succès du projet et livrer un produit de qualité.</t>
+    <t xml:space="preserve">Budget prévisionnel </t>
+  </si>
+  <si>
+    <t>Notes : Ce budget est une estimation et peut varier en fonction de plusieurs facteurs tels que le</t>
+  </si>
+  <si>
+    <t>taux horaires réels, les frais supplémentaires, ect..</t>
+  </si>
+  <si>
+    <t>Ce budget couvre les salaires de développeur junior, le matériel, les logiciels et licences ainsi que</t>
+  </si>
+  <si>
+    <t>diverses autres dépenses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> un produit de qualité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nous nous engageons à respecter ce budget pour assurer le succès du projet et livrer</t>
   </si>
 </sst>
 </file>
@@ -1034,15 +1043,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A953D2-5250-4E5F-9F4B-743F939457D5}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.26953125" customWidth="1"/>
@@ -1051,7 +1060,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1059,24 +1068,24 @@
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>330</v>
@@ -1094,7 +1103,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>12</v>
@@ -1112,7 +1121,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>8</v>
@@ -1130,7 +1139,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>12</v>
@@ -1148,7 +1157,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1163,21 +1172,21 @@
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>1000</v>
@@ -1192,7 +1201,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>500</v>
@@ -1207,7 +1216,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1221,21 +1230,21 @@
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
         <v>500</v>
@@ -1248,7 +1257,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3">
         <v>300</v>
@@ -1261,7 +1270,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1272,34 +1281,49 @@
     </row>
     <row r="23" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="12">
         <f>E8+D14+D20</f>
         <v>8690</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
